--- a/uploads/book.xlsx
+++ b/uploads/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00CDEC-ECE8-41B4-B711-28983FA4A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB8738-B586-486B-BF54-781F7AC62EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>ram pub</t>
   </si>
   <si>
-    <t>sanskrit</t>
-  </si>
-  <si>
     <t>ram</t>
+  </si>
+  <si>
+    <t>hindi</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,8 +101,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,19 +425,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1231478523690</v>
+        <v>1231478637690</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <v>2020</v>
